--- a/biology/Histoire de la zoologie et de la botanique/Jean-Louis_Alléon-Dulac/Jean-Louis_Alléon-Dulac.xlsx
+++ b/biology/Histoire de la zoologie et de la botanique/Jean-Louis_Alléon-Dulac/Jean-Louis_Alléon-Dulac.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Jean-Louis_All%C3%A9on-Dulac</t>
+          <t>Jean-Louis_Alléon-Dulac</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Jean-Louis Alléon-Dulac, né le 11 février 1723 à Saint-Étienne où il est mort le 25 janvier 1788, est un naturaliste français.
 </t>
@@ -493,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Jean-Louis_All%C3%A9on-Dulac</t>
+          <t>Jean-Louis_Alléon-Dulac</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -511,10 +523,12 @@
           <t>Biographie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est le fils d'un conseiller du roi. Avocat au parlement de Toulouse puis au parlement de Lyon entre 1748 et 1765, directeur de la poste, entreposeur des tabacs et receveur de la Loterie à Saint-Étienne, il est surtout connu pour son activité de naturaliste. Il s'intéresse particulièrement aux grenouilles. Botaniste, il herborise en juillet 1766 à Pierre-sur-Haute. Il mène aussi des observations pendant plusieurs séjours dans les environs de Genève, « pendant quatre mois à trois différentes reprises ».
-Membre de l'Académie des sciences, belles-lettres et arts de Lyon (1754-1755), il démissionne à la suite de sa prise de position dans le différend entre le mathématicien d'Alembert et le père jésuite Tolomas[1].
+Membre de l'Académie des sciences, belles-lettres et arts de Lyon (1754-1755), il démissionne à la suite de sa prise de position dans le différend entre le mathématicien d'Alembert et le père jésuite Tolomas.
 Membre de la Société royale d'agriculture de Lyon.
 </t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Jean-Louis_All%C3%A9on-Dulac</t>
+          <t>Jean-Louis_Alléon-Dulac</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,13 @@
           <t>Publications</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Mélange d'histoire naturelle (6 tomes), première publication en 1754 puis ré-édité en 1762 et 1765.
 Mémoire pour servir à l'histoire naturelle des provinces de Lyonnais, Forez et Beaujolais (2 tomes), imprimé chez Claude Cizeron à Lyon en 1765 et ré-édité en 1795/1799.
-Dans ce dernier ouvrage, il donne notamment une description détaillée des carrières et des mines de ces régions, ainsi que l'une des premières figurations d'une ammonite[2]. C'est également le premier à identifier les bélemnites comme des céphalopodes.
+Dans ce dernier ouvrage, il donne notamment une description détaillée des carrières et des mines de ces régions, ainsi que l'une des premières figurations d'une ammonite. C'est également le premier à identifier les bélemnites comme des céphalopodes.
 Alléon-Dulac a écrit plusieurs autres ouvrages qui n'ont pas été publiés de son vivant : 
 Nouveaux mémoires pour servir à l'histoire naturelle des provinces du Lyonnais Forez Beaujolais, achevé en 1786,
 Observations topographiques physiques et critiques sur le climat, les maladies, la population, les arts et le commerce de la ville de Saint-Étienne en Forez,
